--- a/function_index.xlsx
+++ b/function_index.xlsx
@@ -40,288 +40,300 @@
     <t>batch function</t>
   </si>
   <si>
-    <t>Configure MATLAB Batch Menu for MACS Toolbox</t>
+    <t>Configure MATLAB Batch Menu for MACS Toolbox (see spm_cfg.m)</t>
   </si>
   <si>
     <t>17/03/2017, 00:45 (V0.99/V15)</t>
   </si>
   <si>
-    <t>11/05/2017, 16:45 (V1.0/V16)</t>
+    <t>09/03/2018, 10:25 (V1.2/V18)</t>
   </si>
   <si>
     <t>batch_MA_classic_ICs_auto</t>
   </si>
   <si>
-    <t>Configure MATLAB Batch for MACS Toolbox</t>
+    <t>Configure MATLAB Batch for "MA: classical ICs (automatic)"</t>
   </si>
   <si>
     <t>18/03/2017, 11:45 (V0.99/V15)</t>
   </si>
   <si>
-    <t>11/05/2017, 20:15 (V1.0/V16)</t>
-  </si>
-  <si>
     <t>batch_MA_classic_ICs_man</t>
   </si>
   <si>
+    <t>Configure MATLAB Batch for "MA: classical ICs (manually)"</t>
+  </si>
+  <si>
     <t>18/03/2017, 10:45 (V0.99/V15)</t>
   </si>
   <si>
-    <t>11/05/2017, 20:30 (V1.0/V16)</t>
-  </si>
-  <si>
     <t>batch_MA_cvLME_auto</t>
   </si>
   <si>
+    <t>Configure MATLAB Batch for "MA: calculate cvLME (automatic)"</t>
+  </si>
+  <si>
     <t>17/03/2017, 04:05 (V0.99/V15)</t>
   </si>
   <si>
-    <t>17/03/2017, 15:30 (V0.99/V15)</t>
-  </si>
-  <si>
     <t>batch_MA_cvLME_man</t>
   </si>
   <si>
+    <t>Configure MATLAB Batch for "MA: calculate cvLME (manually)"</t>
+  </si>
+  <si>
     <t>16/03/2017, 21:55 (V0.99/V15)</t>
   </si>
   <si>
-    <t>17/03/2017, 06:25 (V0.99/V15)</t>
-  </si>
-  <si>
     <t>batch_MA_inspect_GoF</t>
   </si>
   <si>
+    <t>Configure MATLAB Batch for "MA: inspect goodness of fit"</t>
+  </si>
+  <si>
     <t>18/03/2017, 02:35 (V0.99/V15)</t>
   </si>
   <si>
     <t>batch_MA_LFE_group_auto</t>
   </si>
   <si>
+    <t>Configure MATLAB Batch for "MA: calculate LFE (automatic)"</t>
+  </si>
+  <si>
     <t>17/03/2017, 17:25 (V0.99/V15)</t>
   </si>
   <si>
-    <t>11/05/2017, 17:00 (V1.0/V16)</t>
-  </si>
-  <si>
     <t>batch_MA_LFE_group_man</t>
   </si>
   <si>
-    <t>11/05/2017, 17:20 (V1.0/V16)</t>
+    <t>Configure MATLAB Batch for "MA: calculate LFE (manually)"</t>
   </si>
   <si>
     <t>batch_MA_model_space</t>
   </si>
   <si>
+    <t>Configure MATLAB Batch for "MA: define model space"</t>
+  </si>
+  <si>
     <t>17/03/2017, 01:35 (V0.99/V15)</t>
   </si>
   <si>
+    <t>batch_MC_LBF_group_auto</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MC: calculate LBF (automatic)"</t>
+  </si>
+  <si>
+    <t>18/03/2017, 17:40 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>batch_MC_LBF_group_man</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MC: calculate LBF (manually)"</t>
+  </si>
+  <si>
+    <t>18/03/2017, 17:31 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>batch_MF_visualize</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MF: visualize high-dimensional data"</t>
+  </si>
+  <si>
+    <t>18/03/2017, 05:00 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>batch_MS_BMA_group_auto</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MS: perform BMA (automatic)"</t>
+  </si>
+  <si>
+    <t>17/03/2017, 22:20 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>batch_MS_BMA_group_man</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MS: perform BMA (manually)"</t>
+  </si>
+  <si>
+    <t>17/03/2017, 19:25 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>batch_MS_BMS_group_auto</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MS: perform BMS (automatic)"</t>
+  </si>
+  <si>
+    <t>17/03/2017, 07:15 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>batch_MS_BMS_group_man</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MS: perform BMS (manually)"</t>
+  </si>
+  <si>
+    <t>17/03/2017, 07:00 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>batch_MS_SMM_BMS</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MS: generate SMM from BMS"</t>
+  </si>
+  <si>
+    <t>17/03/2017, 13:25 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>function_index</t>
+  </si>
+  <si>
+    <t>meta function</t>
+  </si>
+  <si>
+    <t>List all Functions from the MACS Toolbox</t>
+  </si>
+  <si>
+    <t>15/08/2017, 17:15 (V1.1/V17)</t>
+  </si>
+  <si>
+    <t>02/02/2018, 02:55 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>function_index.py</t>
+  </si>
+  <si>
+    <t>List all Functions from the MACS Toolbox (Python)</t>
+  </si>
+  <si>
+    <t>MA_classic_ICs</t>
+  </si>
+  <si>
+    <t>model assessment</t>
+  </si>
+  <si>
+    <t>Classical Information Criteria for General Linear Model</t>
+  </si>
+  <si>
+    <t>18/03/2017, 09:30 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 14:05 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>MA_cvLME_multi</t>
+  </si>
+  <si>
+    <t>Cross-Validated Log Model Evidence for General Linear Model (multi-session)</t>
+  </si>
+  <si>
+    <t>04/03/2014, 19:00 (V0.1/V1)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 12:00 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>MA_cvLME_single</t>
+  </si>
+  <si>
+    <t>Cross-Validated Log Model Evidence for General Linear Model (single-session)</t>
+  </si>
+  <si>
+    <t>MA_GLM_AR_only</t>
+  </si>
+  <si>
+    <t>General Linear Model with AR Component Estimation only</t>
+  </si>
+  <si>
+    <t>18/08/2015, 04:10 (V0.3/V11)</t>
+  </si>
+  <si>
+    <t>18/08/2015, 08:30 (V0.3/V11)</t>
+  </si>
+  <si>
+    <t>MA_init_header</t>
+  </si>
+  <si>
+    <t>Initialize Header for Saving Brain Maps</t>
+  </si>
+  <si>
+    <t>24/10/2014, 18:10 (V0.2/V6)</t>
+  </si>
+  <si>
+    <t>18/08/2015, 07:40 (V0.3/V11)</t>
+  </si>
+  <si>
+    <t>MA_inspect_GoF</t>
+  </si>
+  <si>
+    <t>Inspect Goodness of Fit in a General Linear Model</t>
+  </si>
+  <si>
+    <t>12/02/2015, 05:35 (V0.3/V10)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 11:40 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>MA_LFE_uniform</t>
+  </si>
+  <si>
+    <t>Log Family Evidence assuming Uniform Priors over and within Families</t>
+  </si>
+  <si>
+    <t>05/02/2015, 12:20 (V0.3/V9)</t>
+  </si>
+  <si>
+    <t>07/12/2017, 20:50 (V1.1/V17)</t>
+  </si>
+  <si>
+    <t>MA_load_betas</t>
+  </si>
+  <si>
+    <t>Load Betas from General Linear Model</t>
+  </si>
+  <si>
+    <t>24/10/2014, 18:30 (V0.2/V6)</t>
+  </si>
+  <si>
+    <t>08/08/2017, 15:10 (V1.1/V17)</t>
+  </si>
+  <si>
+    <t>MA_load_data</t>
+  </si>
+  <si>
+    <t>Load Data from General Linear Model</t>
+  </si>
+  <si>
+    <t>MA_load_mask</t>
+  </si>
+  <si>
+    <t>Load Mask from General Linear Model</t>
+  </si>
+  <si>
+    <t>24/10/2014, 18:20 (V0.2/V6)</t>
+  </si>
+  <si>
+    <t>01/12/2017, 01:40 (V1.1/V17)</t>
+  </si>
+  <si>
+    <t>MA_model_space</t>
+  </si>
+  <si>
+    <t>Specify Model Space of General Linear Models</t>
+  </si>
+  <si>
+    <t>17/03/2017, 02:05 (V0.99/V15)</t>
+  </si>
+  <si>
     <t>17/03/2017, 02:20 (V0.99/V15)</t>
   </si>
   <si>
-    <t>batch_MC_LBF_group_auto</t>
-  </si>
-  <si>
-    <t>18/03/2017, 17:40 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>batch_MC_LBF_group_man</t>
-  </si>
-  <si>
-    <t>18/03/2017, 17:31 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>batch_MF_visualize</t>
-  </si>
-  <si>
-    <t>18/03/2017, 05:00 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>batch_MS_BMA_group_auto</t>
-  </si>
-  <si>
-    <t>17/03/2017, 22:20 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>07/12/2017, 15:45 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>batch_MS_BMA_group_man</t>
-  </si>
-  <si>
-    <t>17/03/2017, 19:25 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>batch_MS_BMS_group_auto</t>
-  </si>
-  <si>
-    <t>17/03/2017, 07:15 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>17/03/2017, 10:50 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>batch_MS_BMS_group_man</t>
-  </si>
-  <si>
-    <t>17/03/2017, 07:00 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>17/03/2017, 10:30 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>batch_MS_SMM_BMS</t>
-  </si>
-  <si>
-    <t>17/03/2017, 13:25 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>11/05/2017, 16:35 (V1.0/V16)</t>
-  </si>
-  <si>
-    <t>function_index</t>
-  </si>
-  <si>
-    <t>meta function</t>
-  </si>
-  <si>
-    <t>List all Functions from the MACS Toolbox</t>
-  </si>
-  <si>
-    <t>15/08/2017, 17:15 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>02/02/2018, 02:55 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>function_index.py</t>
-  </si>
-  <si>
-    <t>List all Functions from the MACS Toolbox (Python)</t>
-  </si>
-  <si>
-    <t>MA_classic_ICs</t>
-  </si>
-  <si>
-    <t>model assessment</t>
-  </si>
-  <si>
-    <t>Classical Information Criteria for General Linear Model</t>
-  </si>
-  <si>
-    <t>18/03/2017, 09:30 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>18/08/2017, 17:00 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>MA_cvLME_multi</t>
-  </si>
-  <si>
-    <t>Cross-Validated Log Model Evidence for General Linear Model (multi-session)</t>
-  </si>
-  <si>
-    <t>04/03/2014, 19:00 (V0.1/V1)</t>
-  </si>
-  <si>
-    <t>01/12/2017, 00:25 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>MA_cvLME_single</t>
-  </si>
-  <si>
-    <t>Cross-Validated Log Model Evidence for General Linear Model (single-session)</t>
-  </si>
-  <si>
-    <t>01/12/2017, 00:35 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>MA_GLM_AR_only</t>
-  </si>
-  <si>
-    <t>General Linear Model with AR Component Estimation only</t>
-  </si>
-  <si>
-    <t>18/08/2015, 04:10 (V0.3/V11)</t>
-  </si>
-  <si>
-    <t>18/08/2015, 08:30 (V0.3/V11)</t>
-  </si>
-  <si>
-    <t>MA_init_header</t>
-  </si>
-  <si>
-    <t>Initialize Header for Saving Brain Maps</t>
-  </si>
-  <si>
-    <t>24/10/2014, 18:10 (V0.2/V6)</t>
-  </si>
-  <si>
-    <t>18/08/2015, 07:40 (V0.3/V11)</t>
-  </si>
-  <si>
-    <t>MA_inspect_GoF</t>
-  </si>
-  <si>
-    <t>Inspect Goodness of Fit in a General Linear Model</t>
-  </si>
-  <si>
-    <t>12/02/2015, 05:35 (V0.3/V10)</t>
-  </si>
-  <si>
-    <t>11/05/2017, 21:30 (V1.0/V16)</t>
-  </si>
-  <si>
-    <t>MA_LFE_uniform</t>
-  </si>
-  <si>
-    <t>Log Family Evidence assuming Uniform Priors over and within Families</t>
-  </si>
-  <si>
-    <t>05/02/2015, 12:20 (V0.3/V9)</t>
-  </si>
-  <si>
-    <t>07/12/2017, 20:50 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>MA_load_betas</t>
-  </si>
-  <si>
-    <t>Load Betas from General Linear Model</t>
-  </si>
-  <si>
-    <t>24/10/2014, 18:30 (V0.2/V6)</t>
-  </si>
-  <si>
-    <t>08/08/2017, 15:10 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>MA_load_data</t>
-  </si>
-  <si>
-    <t>Load Data from General Linear Model</t>
-  </si>
-  <si>
-    <t>MA_load_mask</t>
-  </si>
-  <si>
-    <t>Load Mask from General Linear Model</t>
-  </si>
-  <si>
-    <t>24/10/2014, 18:20 (V0.2/V6)</t>
-  </si>
-  <si>
-    <t>01/12/2017, 01:40 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>MA_model_space</t>
-  </si>
-  <si>
-    <t>Specify Model Space of General Linear Models</t>
-  </si>
-  <si>
-    <t>17/03/2017, 02:05 (V0.99/V15)</t>
-  </si>
-  <si>
     <t>MC_LBF_group</t>
   </si>
   <si>
@@ -334,7 +346,7 @@
     <t>18/03/2017, 17:05 (V0.99/V15)</t>
   </si>
   <si>
-    <t>01/12/2017, 05:55 (V1.1/V17)</t>
+    <t>09/03/2018, 11:55 (V1.2/V18)</t>
   </si>
   <si>
     <t>MD_dirrnd</t>
@@ -361,7 +373,7 @@
     <t>21/10/2014, 18:20 (V0.2/V6)</t>
   </si>
   <si>
-    <t>15/09/2016, 09:20 (V0.9a/V13a)</t>
+    <t>09/03/2018, 12:05 (V1.2/V18)</t>
   </si>
   <si>
     <t>MD_Dir_mean</t>
@@ -406,7 +418,7 @@
     <t>20/11/2014, 17:40 (V0.2/V8)</t>
   </si>
   <si>
-    <t>04/12/2014, 17:30 (V0.2/V8)</t>
+    <t>09/03/2018, 11:25 (V1.2/V18)</t>
   </si>
   <si>
     <t>ME_BMS_DI</t>
@@ -451,7 +463,7 @@
     <t>20/11/2014, 17:10 (V0.2/V8)</t>
   </si>
   <si>
-    <t>15/09/2016, 09:05 (V0.9a/V13a)</t>
+    <t>09/03/2018, 12:10 (V1.2/V18)</t>
   </si>
   <si>
     <t>ME_GLM</t>
@@ -463,7 +475,7 @@
     <t>29/10/2014, 14:05 (V0.2/V7)</t>
   </si>
   <si>
-    <t>10/03/2015, 19:00 (V0.3/V10)</t>
+    <t>09/03/2018, 12:30 (V1.2/V18)</t>
   </si>
   <si>
     <t>ME_GLM_DIC</t>
@@ -475,7 +487,7 @@
     <t>11/05/2017, 23:20 (V1.0/V16)</t>
   </si>
   <si>
-    <t>18/08/2017, 16:55 (V1.1/V17)</t>
+    <t>09/03/2018, 12:50 (V1.2/V18)</t>
   </si>
   <si>
     <t>ME_GLM_GoF</t>
@@ -487,7 +499,7 @@
     <t>04/03/2015, 15:15 (V0.3/V10)</t>
   </si>
   <si>
-    <t>18/08/2017, 16:50 (V1.1/V17)</t>
+    <t>09/03/2018, 12:40 (V1.2/V18)</t>
   </si>
   <si>
     <t>ME_GLM_LL</t>
@@ -499,7 +511,7 @@
     <t>18/03/2017, 08:40 (V0.99/V15)</t>
   </si>
   <si>
-    <t>18/03/2017, 11:35 (V0.99/V15)</t>
+    <t>09/03/2018, 12:35 (V1.2/V18)</t>
   </si>
   <si>
     <t>ME_GLM_NG</t>
@@ -511,7 +523,7 @@
     <t>24/10/2014, 16:30 (V0.2/V6)</t>
   </si>
   <si>
-    <t>15/09/2016, 07:10 (V0.9a/V13a)</t>
+    <t>09/03/2018, 12:15 (V1.2/V18)</t>
   </si>
   <si>
     <t>ME_GLM_NG_AnC</t>
@@ -523,9 +535,6 @@
     <t>07/01/2015, 14:10 (V0.3/V9)</t>
   </si>
   <si>
-    <t>07/01/2015, 15:15 (V0.3/V9)</t>
-  </si>
-  <si>
     <t>ME_GLM_NG_LME</t>
   </si>
   <si>
@@ -544,7 +553,7 @@
     <t>11/03/2015, 03:05 (V0.3/V10)</t>
   </si>
   <si>
-    <t>11/05/2017, 19:55 (V1.0/V16)</t>
+    <t>09/03/2018, 12:45 (V1.2/V18)</t>
   </si>
   <si>
     <t>ME_MF_LFE</t>
@@ -592,9 +601,6 @@
     <t>Visualize High-Dimensional Data using SPM Overlay Mode</t>
   </si>
   <si>
-    <t>01/12/2017, 16:35 (V1.1/V17)</t>
-  </si>
-  <si>
     <t>MS_BMA_group</t>
   </si>
   <si>
@@ -607,9 +613,6 @@
     <t>03/03/2016, 18:35 (V0.4/V13)</t>
   </si>
   <si>
-    <t>11/05/2017, 18:20 (V1.0/V16)</t>
-  </si>
-  <si>
     <t>MS_BMA_subject</t>
   </si>
   <si>
@@ -617,9 +620,6 @@
   </si>
   <si>
     <t>03/03/2016, 13:30 (V0.4/V13)</t>
-  </si>
-  <si>
-    <t>08/12/2017, 02:20 (V1.1/V17)</t>
   </si>
   <si>
     <t>MS_BMS_exp</t>
@@ -1082,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1099,81 +1099,81 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1182,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1193,16 +1193,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1213,16 +1213,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1233,16 +1233,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1253,173 +1253,173 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>78</v>
@@ -1427,19 +1427,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>103</v>
@@ -1447,79 +1447,79 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F21">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
         <v>66</v>
       </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F22">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F24">
         <v>114</v>
@@ -1527,19 +1527,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F25">
         <v>35</v>
@@ -1547,59 +1547,59 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F26">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F27">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F28">
         <v>51</v>
@@ -1607,19 +1607,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
         <v>94</v>
       </c>
-      <c r="D29" t="s">
-        <v>91</v>
-      </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F29">
         <v>51</v>
@@ -1627,19 +1627,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F30">
         <v>41</v>
@@ -1647,19 +1647,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="F31">
         <v>44</v>
@@ -1667,39 +1667,39 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F32">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F33">
         <v>40</v>
@@ -1707,39 +1707,39 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
         <v>112</v>
       </c>
-      <c r="B34" t="s">
-        <v>108</v>
-      </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F34">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F35">
         <v>28</v>
@@ -1747,19 +1747,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F36">
         <v>28</v>
@@ -1767,19 +1767,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F37">
         <v>64</v>
@@ -1787,39 +1787,39 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F38">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F39">
         <v>54</v>
@@ -1827,19 +1827,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F40">
         <v>82</v>
@@ -1847,19 +1847,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F41">
         <v>129</v>
@@ -1867,119 +1867,119 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F42">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F43">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F44">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F45">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F46">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F47">
         <v>99</v>
@@ -1987,99 +1987,99 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
       </c>
       <c r="F48">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E49" t="s">
         <v>169</v>
       </c>
       <c r="F49">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F50">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F51">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F52">
         <v>30</v>
@@ -2087,19 +2087,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F53">
         <v>36</v>
@@ -2107,59 +2107,59 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="F54">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E55" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="F55">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="F56">
         <v>333</v>
@@ -2170,7 +2170,7 @@
         <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C57" t="s">
         <v>203</v>
@@ -2190,7 +2190,7 @@
         <v>205</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
         <v>206</v>
@@ -2210,7 +2210,7 @@
         <v>209</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C59" t="s">
         <v>210</v>
@@ -2230,7 +2230,7 @@
         <v>213</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
         <v>214</v>
@@ -2250,7 +2250,7 @@
         <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
         <v>218</v>
@@ -2270,7 +2270,7 @@
         <v>221</v>
       </c>
       <c r="F62">
-        <v>7956</v>
+        <v>8009</v>
       </c>
     </row>
   </sheetData>

--- a/function_index.xlsx
+++ b/function_index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="230">
   <si>
     <t>Function Name</t>
   </si>
@@ -46,18 +46,21 @@
     <t>17/03/2017, 00:45 (V0.99/V15)</t>
   </si>
   <si>
+    <t>04/05/2018, 16:55 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>batch_MA_classic_ICs_auto</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MA: classical ICs (automatic)"</t>
+  </si>
+  <si>
+    <t>18/03/2017, 11:45 (V0.99/V15)</t>
+  </si>
+  <si>
     <t>09/03/2018, 10:25 (V1.2/V18)</t>
   </si>
   <si>
-    <t>batch_MA_classic_ICs_auto</t>
-  </si>
-  <si>
-    <t>Configure MATLAB Batch for "MA: classical ICs (automatic)"</t>
-  </si>
-  <si>
-    <t>18/03/2017, 11:45 (V0.99/V15)</t>
-  </si>
-  <si>
     <t>batch_MA_classic_ICs_man</t>
   </si>
   <si>
@@ -181,6 +184,24 @@
     <t>17/03/2017, 07:00 (V0.99/V15)</t>
   </si>
   <si>
+    <t>batch_MS_PPs_group_auto</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MS: calculate PPs (automatic)"</t>
+  </si>
+  <si>
+    <t>04/05/2018, 16:50 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>batch_MS_PPs_group_man</t>
+  </si>
+  <si>
+    <t>Configure MATLAB Batch for "MS: calculate PPs (manually)"</t>
+  </si>
+  <si>
+    <t>04/05/2018, 16:35 (V1.2/V18)</t>
+  </si>
+  <si>
     <t>batch_MS_SMM_BMS</t>
   </si>
   <si>
@@ -346,7 +367,7 @@
     <t>18/03/2017, 17:05 (V0.99/V15)</t>
   </si>
   <si>
-    <t>09/03/2018, 11:55 (V1.2/V18)</t>
+    <t>04/05/2018, 15:25 (V1.2/V18)</t>
   </si>
   <si>
     <t>MD_dirrnd</t>
@@ -361,7 +382,7 @@
     <t>21/10/2014, 18:30 (V0.2/V6)</t>
   </si>
   <si>
-    <t>16/03/2017, 20:55 (V0.99/V15)</t>
+    <t>04/05/2018, 14:40 (V1.2/V18)</t>
   </si>
   <si>
     <t>MD_Dir_exc_prob</t>
@@ -421,21 +442,12 @@
     <t>09/03/2018, 11:25 (V1.2/V18)</t>
   </si>
   <si>
-    <t>ME_BMS_DI</t>
+    <t>ME_BMS_FFX</t>
   </si>
   <si>
     <t>model estimation</t>
   </si>
   <si>
-    <t>Decisiveness Index for Bayesian Model Selection</t>
-  </si>
-  <si>
-    <t>29/01/2018, 14:30 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>ME_BMS_FFX</t>
-  </si>
-  <si>
     <t>Fixed Effects Bayesian Model Selection using Bayes' Rule</t>
   </si>
   <si>
@@ -568,6 +580,18 @@
     <t>17/08/2015, 22:15 (V0.3/V11)</t>
   </si>
   <si>
+    <t>ME_MS_PPs</t>
+  </si>
+  <si>
+    <t>Posterior Probabilities within Model Space</t>
+  </si>
+  <si>
+    <t>04/05/2018, 16:10 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>04/05/2018, 17:10 (V1.2/V18)</t>
+  </si>
+  <si>
     <t>MF_int2str0</t>
   </si>
   <si>
@@ -622,15 +646,6 @@
     <t>03/03/2016, 13:30 (V0.4/V13)</t>
   </si>
   <si>
-    <t>MS_BMS_exp</t>
-  </si>
-  <si>
-    <t>Experimental Script for Bayesian Model Selection</t>
-  </si>
-  <si>
-    <t>29/01/2018, 14:50 (V1.2/V18)</t>
-  </si>
-  <si>
     <t>MS_BMS_fams</t>
   </si>
   <si>
@@ -652,7 +667,7 @@
     <t>05/12/2014, 12:15 (V0.2/V8)</t>
   </si>
   <si>
-    <t>17/03/2017, 10:20 (V0.99/V15)</t>
+    <t>04/05/2018, 15:05 (V1.2/V18)</t>
   </si>
   <si>
     <t>MS_create_mask</t>
@@ -665,6 +680,15 @@
   </si>
   <si>
     <t>17/08/2015, 23:20 (V0.3/V11)</t>
+  </si>
+  <si>
+    <t>MS_PPs_uniform</t>
+  </si>
+  <si>
+    <t>Posterior Model Probabilities assuming Uniform Prior over Models</t>
+  </si>
+  <si>
+    <t>04/05/2018, 16:25 (V1.2/V18)</t>
   </si>
   <si>
     <t>MS_SMM_BMS</t>
@@ -1029,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1082,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1099,7 +1123,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>153</v>
@@ -1107,19 +1131,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>87</v>
@@ -1127,19 +1151,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>78</v>
@@ -1147,19 +1171,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -1167,19 +1191,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>69</v>
@@ -1187,19 +1211,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>113</v>
@@ -1207,19 +1231,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>119</v>
@@ -1227,19 +1251,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>114</v>
@@ -1247,19 +1271,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>81</v>
@@ -1267,19 +1291,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>103</v>
@@ -1287,19 +1311,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>128</v>
@@ -1307,19 +1331,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>118</v>
@@ -1327,19 +1351,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>114</v>
@@ -1347,19 +1371,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>119</v>
@@ -1367,19 +1391,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>141</v>
@@ -1387,30 +1411,30 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F18">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -1419,30 +1443,30 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1462,7 +1486,7 @@
         <v>69</v>
       </c>
       <c r="F21">
-        <v>247</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1476,293 +1500,293 @@
         <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F22">
-        <v>418</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F23">
-        <v>350</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>114</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
       <c r="F25">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>85</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>86</v>
       </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
       <c r="F26">
-        <v>788</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>89</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>90</v>
       </c>
-      <c r="E27" t="s">
-        <v>91</v>
-      </c>
       <c r="F27">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
         <v>92</v>
       </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>93</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>94</v>
       </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
       <c r="F28">
-        <v>51</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
         <v>96</v>
       </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F29">
-        <v>51</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F30">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
         <v>102</v>
       </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
       <c r="F31">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
         <v>106</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>107</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>108</v>
       </c>
-      <c r="D32" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
-      </c>
       <c r="F32">
-        <v>192</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
         <v>111</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>112</v>
       </c>
-      <c r="C33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" t="s">
-        <v>115</v>
-      </c>
       <c r="F33">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
         <v>116</v>
       </c>
-      <c r="B34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>117</v>
       </c>
-      <c r="D34" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" t="s">
-        <v>119</v>
-      </c>
       <c r="F34">
-        <v>84</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
         <v>120</v>
       </c>
-      <c r="B35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>122</v>
       </c>
-      <c r="E35" t="s">
-        <v>123</v>
-      </c>
       <c r="F35">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
         <v>124</v>
       </c>
-      <c r="B36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>126</v>
       </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
       <c r="F36">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1770,7 +1794,7 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
         <v>128</v>
@@ -1782,7 +1806,7 @@
         <v>130</v>
       </c>
       <c r="F37">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1790,7 +1814,7 @@
         <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
         <v>132</v>
@@ -1799,58 +1823,58 @@
         <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F38">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
         <v>135</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>136</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>137</v>
       </c>
-      <c r="D39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" t="s">
-        <v>138</v>
-      </c>
       <c r="F39">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
         <v>139</v>
       </c>
-      <c r="B40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>140</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>141</v>
       </c>
-      <c r="E40" t="s">
-        <v>142</v>
-      </c>
       <c r="F40">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
         <v>143</v>
-      </c>
-      <c r="B41" t="s">
-        <v>136</v>
       </c>
       <c r="C41" t="s">
         <v>144</v>
@@ -1859,30 +1883,30 @@
         <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F41">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" t="s">
         <v>146</v>
       </c>
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" t="s">
-        <v>149</v>
-      </c>
       <c r="F42">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1890,7 +1914,7 @@
         <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
         <v>151</v>
@@ -1902,7 +1926,7 @@
         <v>153</v>
       </c>
       <c r="F43">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1910,7 +1934,7 @@
         <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
         <v>155</v>
@@ -1922,7 +1946,7 @@
         <v>157</v>
       </c>
       <c r="F44">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1930,7 +1954,7 @@
         <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
         <v>159</v>
@@ -1942,7 +1966,7 @@
         <v>161</v>
       </c>
       <c r="F45">
-        <v>135</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1950,7 +1974,7 @@
         <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
         <v>163</v>
@@ -1962,7 +1986,7 @@
         <v>165</v>
       </c>
       <c r="F46">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1970,7 +1994,7 @@
         <v>166</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
         <v>167</v>
@@ -1982,7 +2006,7 @@
         <v>169</v>
       </c>
       <c r="F47">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1990,7 +2014,7 @@
         <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
         <v>171</v>
@@ -1999,50 +2023,50 @@
         <v>172</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F48">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" t="s">
         <v>173</v>
       </c>
-      <c r="B49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" t="s">
-        <v>174</v>
-      </c>
-      <c r="D49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" t="s">
-        <v>169</v>
-      </c>
       <c r="F49">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F50">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2050,7 +2074,7 @@
         <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
         <v>181</v>
@@ -2062,7 +2086,7 @@
         <v>183</v>
       </c>
       <c r="F51">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2070,207 +2094,247 @@
         <v>184</v>
       </c>
       <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="s">
         <v>185</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>186</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>187</v>
       </c>
-      <c r="E52" t="s">
-        <v>188</v>
-      </c>
       <c r="F52">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
         <v>189</v>
       </c>
-      <c r="B53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>190</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>191</v>
       </c>
-      <c r="E53" t="s">
-        <v>192</v>
-      </c>
       <c r="F53">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" t="s">
         <v>193</v>
-      </c>
-      <c r="B54" t="s">
-        <v>185</v>
       </c>
       <c r="C54" t="s">
         <v>194</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="F54">
-        <v>690</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E55" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="F55">
-        <v>107</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F56">
-        <v>333</v>
+        <v>690</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="F57">
-        <v>164</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="F58">
-        <v>200</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F59">
-        <v>348</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F60">
-        <v>40</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" t="s">
+        <v>224</v>
+      </c>
+      <c r="F62">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" t="s">
+        <v>228</v>
+      </c>
+      <c r="F63">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="C62" t="s">
-        <v>221</v>
-      </c>
-      <c r="F62">
-        <v>8009</v>
+    <row r="64" spans="1:6">
+      <c r="C64" t="s">
+        <v>229</v>
+      </c>
+      <c r="F64">
+        <v>8151</v>
       </c>
     </row>
   </sheetData>

--- a/function_index.xlsx
+++ b/function_index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="238">
   <si>
     <t>Function Name</t>
   </si>
@@ -256,385 +256,409 @@
     <t>04/03/2014, 19:00 (V0.1/V1)</t>
   </si>
   <si>
+    <t>11/12/2018, 10:15 (V1.3/V19)</t>
+  </si>
+  <si>
+    <t>MA_cvLME_other</t>
+  </si>
+  <si>
+    <t>Cross-Validated Log Model Evidence for General Linear Model (non-first-level)</t>
+  </si>
+  <si>
+    <t>11/12/2018, 10:35 (V1.3/V19)</t>
+  </si>
+  <si>
+    <t>MA_cvLME_single</t>
+  </si>
+  <si>
+    <t>Cross-Validated Log Model Evidence for General Linear Model (single-session)</t>
+  </si>
+  <si>
+    <t>MA_GLM_AR_only</t>
+  </si>
+  <si>
+    <t>General Linear Model with AR Component Estimation only</t>
+  </si>
+  <si>
+    <t>18/08/2015, 04:10 (V0.3/V11)</t>
+  </si>
+  <si>
+    <t>18/08/2015, 08:30 (V0.3/V11)</t>
+  </si>
+  <si>
+    <t>MA_init_header</t>
+  </si>
+  <si>
+    <t>Initialize Header for Saving Brain Maps</t>
+  </si>
+  <si>
+    <t>24/10/2014, 18:10 (V0.2/V6)</t>
+  </si>
+  <si>
+    <t>18/08/2015, 07:40 (V0.3/V11)</t>
+  </si>
+  <si>
+    <t>MA_inspect_GoF</t>
+  </si>
+  <si>
+    <t>Inspect Goodness of Fit in a General Linear Model</t>
+  </si>
+  <si>
+    <t>12/02/2015, 05:35 (V0.3/V10)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 11:40 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>MA_LFE_uniform</t>
+  </si>
+  <si>
+    <t>Log Family Evidence assuming Uniform Priors over and within Families</t>
+  </si>
+  <si>
+    <t>05/02/2015, 12:20 (V0.3/V9)</t>
+  </si>
+  <si>
+    <t>07/12/2017, 20:50 (V1.1/V17)</t>
+  </si>
+  <si>
+    <t>MA_load_betas</t>
+  </si>
+  <si>
+    <t>Load Betas from General Linear Model</t>
+  </si>
+  <si>
+    <t>24/10/2014, 18:30 (V0.2/V6)</t>
+  </si>
+  <si>
+    <t>08/08/2017, 15:10 (V1.1/V17)</t>
+  </si>
+  <si>
+    <t>MA_load_data</t>
+  </si>
+  <si>
+    <t>Load Data from General Linear Model</t>
+  </si>
+  <si>
+    <t>MA_load_mask</t>
+  </si>
+  <si>
+    <t>Load Mask from General Linear Model</t>
+  </si>
+  <si>
+    <t>24/10/2014, 18:20 (V0.2/V6)</t>
+  </si>
+  <si>
+    <t>01/12/2017, 01:40 (V1.1/V17)</t>
+  </si>
+  <si>
+    <t>MA_model_space</t>
+  </si>
+  <si>
+    <t>Specify Model Space of General Linear Models</t>
+  </si>
+  <si>
+    <t>17/03/2017, 02:05 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>17/03/2017, 02:20 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>MC_LBF_group</t>
+  </si>
+  <si>
+    <t>model comparison</t>
+  </si>
+  <si>
+    <t>Log Bayes Factors for General Linear Models</t>
+  </si>
+  <si>
+    <t>18/03/2017, 17:05 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>04/05/2018, 15:25 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>MD_dirrnd</t>
+  </si>
+  <si>
+    <t>many distributions</t>
+  </si>
+  <si>
+    <t>Dirichlet-distributed random numbers</t>
+  </si>
+  <si>
+    <t>21/10/2014, 18:30 (V0.2/V6)</t>
+  </si>
+  <si>
+    <t>17/10/2018, 14:05 (V1.3/V19)</t>
+  </si>
+  <si>
+    <t>MD_Dir_exc_prob</t>
+  </si>
+  <si>
+    <t>Exceedance Probabilities for Dirichlet-distributed random variables</t>
+  </si>
+  <si>
+    <t>21/10/2014, 18:20 (V0.2/V6)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 12:05 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>MD_Dir_mean</t>
+  </si>
+  <si>
+    <t>Expected Frequencies for Dirichlet-distributed random variables</t>
+  </si>
+  <si>
+    <t>21/10/2014, 18:10 (V0.2/V6)</t>
+  </si>
+  <si>
+    <t>15/09/2016, 09:15 (V0.9a/V13a)</t>
+  </si>
+  <si>
+    <t>MD_Dir_mode</t>
+  </si>
+  <si>
+    <t>Likeliest Frequencies for Dirichlet-distributed random variables</t>
+  </si>
+  <si>
+    <t>04/12/2014, 14:30 (V0.2/V8)</t>
+  </si>
+  <si>
+    <t>MD_gamrnd</t>
+  </si>
+  <si>
+    <t>Gamma-distributed random numbers</t>
+  </si>
+  <si>
+    <t>27/11/2014, 18:20 (V0.2/V8)</t>
+  </si>
+  <si>
+    <t>04/12/2014, 17:20 (V0.2/V8)</t>
+  </si>
+  <si>
+    <t>MD_multrnd</t>
+  </si>
+  <si>
+    <t>Multinomially distributed random numbers</t>
+  </si>
+  <si>
+    <t>20/11/2014, 17:40 (V0.2/V8)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 11:25 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>ME_BMS_FFX</t>
+  </si>
+  <si>
+    <t>model estimation</t>
+  </si>
+  <si>
+    <t>Fixed Effects Bayesian Model Selection using Bayes' Rule</t>
+  </si>
+  <si>
+    <t>20/11/2014, 16:50 (V0.2/V8)</t>
+  </si>
+  <si>
+    <t>17/08/2015, 22:00 (V0.3/V11)</t>
+  </si>
+  <si>
+    <t>ME_BMS_RFX_GS</t>
+  </si>
+  <si>
+    <t>Random Effects Bayesian Model Selection using Gibbs Sampling</t>
+  </si>
+  <si>
+    <t>20/11/2014, 19:10 (V0.2/V8)</t>
+  </si>
+  <si>
+    <t>ME_BMS_RFX_VB</t>
+  </si>
+  <si>
+    <t>Random Effects Bayesian Model Selection using Variational Bayes</t>
+  </si>
+  <si>
+    <t>20/11/2014, 17:10 (V0.2/V8)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 12:10 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>ME_GLM</t>
+  </si>
+  <si>
+    <t>Maximum Likelihood Estimation of General Linear Model</t>
+  </si>
+  <si>
+    <t>29/10/2014, 14:05 (V0.2/V7)</t>
+  </si>
+  <si>
+    <t>14/11/2018, 15:50 (V1.3/V19)</t>
+  </si>
+  <si>
+    <t>ME_GLM_con</t>
+  </si>
+  <si>
+    <t>Contrast-Based Inference for Classical General Linear Model</t>
+  </si>
+  <si>
+    <t>29/10/2018, 15:55 (V1.3/V19)</t>
+  </si>
+  <si>
+    <t>14/10/2018, 15:55 (V1.3/V19)</t>
+  </si>
+  <si>
+    <t>ME_GLM_DIC</t>
+  </si>
+  <si>
+    <t>Deviance Information Criterion for the General Linear Model</t>
+  </si>
+  <si>
+    <t>11/05/2017, 23:20 (V1.0/V16)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 12:50 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>ME_GLM_GoF</t>
+  </si>
+  <si>
+    <t>Goodness of Fit for Classical General Linear Model</t>
+  </si>
+  <si>
+    <t>04/03/2015, 15:15 (V0.3/V10)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 12:40 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>ME_GLM_LL</t>
+  </si>
+  <si>
+    <t>Log-Likelihood Function for the General Linear Model</t>
+  </si>
+  <si>
+    <t>18/03/2017, 08:40 (V0.99/V15)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 12:35 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>ME_GLM_NG</t>
+  </si>
+  <si>
+    <t>Estimation of General Linear Model with Normal-Gamma Priors</t>
+  </si>
+  <si>
+    <t>24/10/2014, 16:30 (V0.2/V6)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 12:15 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>ME_GLM_NG_AnC</t>
+  </si>
+  <si>
+    <t>Accuracy and Complexity for General Linear Model with Normal-Gamma Priors</t>
+  </si>
+  <si>
+    <t>07/01/2015, 14:10 (V0.3/V9)</t>
+  </si>
+  <si>
+    <t>ME_GLM_NG_LME</t>
+  </si>
+  <si>
+    <t>Log Model Evidence for General Linear Model with Normal-Gamma Priors</t>
+  </si>
+  <si>
+    <t>07/11/2014, 13:10 (V0.2/V7)</t>
+  </si>
+  <si>
+    <t>ME_GLM_SNR</t>
+  </si>
+  <si>
+    <t>Signal-to-Noise Ratio for Classical General Linear Model</t>
+  </si>
+  <si>
+    <t>11/03/2015, 03:05 (V0.3/V10)</t>
+  </si>
+  <si>
+    <t>09/03/2018, 12:45 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>ME_MF_LFE</t>
+  </si>
+  <si>
+    <t>Log Family Evidence for Model Family</t>
+  </si>
+  <si>
+    <t>12/02/2015, 02:05 (V0.3/V10)</t>
+  </si>
+  <si>
+    <t>17/08/2015, 22:15 (V0.3/V11)</t>
+  </si>
+  <si>
+    <t>ME_MS_PPs</t>
+  </si>
+  <si>
+    <t>Posterior Probabilities within Model Space</t>
+  </si>
+  <si>
+    <t>04/05/2018, 16:10 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>04/05/2018, 17:10 (V1.2/V18)</t>
+  </si>
+  <si>
+    <t>MF_int2str0</t>
+  </si>
+  <si>
+    <t>more functions</t>
+  </si>
+  <si>
+    <t>Convert integer to string of specified length</t>
+  </si>
+  <si>
+    <t>12/03/2015, 07:55 (V0.3/V10)</t>
+  </si>
+  <si>
+    <t>26/03/2015, 09:20 (V0.3/V10)</t>
+  </si>
+  <si>
+    <t>MF_quantile</t>
+  </si>
+  <si>
+    <t>Quantiles for univariate data</t>
+  </si>
+  <si>
+    <t>31/07/2014, 11:50 (V0.1/V4)</t>
+  </si>
+  <si>
+    <t>13/11/2014, 12:00 (V0.2/V7)</t>
+  </si>
+  <si>
+    <t>MF_visualize</t>
+  </si>
+  <si>
+    <t>Visualize High-Dimensional Data using SPM Overlay Mode</t>
+  </si>
+  <si>
+    <t>MS_BMA_group</t>
+  </si>
+  <si>
+    <t>model selection</t>
+  </si>
+  <si>
+    <t>Bayesian Model Averaging for General Linear Models (subject group)</t>
+  </si>
+  <si>
+    <t>03/03/2016, 18:35 (V0.4/V13)</t>
+  </si>
+  <si>
     <t>09/03/2018, 12:00 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>MA_cvLME_single</t>
-  </si>
-  <si>
-    <t>Cross-Validated Log Model Evidence for General Linear Model (single-session)</t>
-  </si>
-  <si>
-    <t>MA_GLM_AR_only</t>
-  </si>
-  <si>
-    <t>General Linear Model with AR Component Estimation only</t>
-  </si>
-  <si>
-    <t>18/08/2015, 04:10 (V0.3/V11)</t>
-  </si>
-  <si>
-    <t>18/08/2015, 08:30 (V0.3/V11)</t>
-  </si>
-  <si>
-    <t>MA_init_header</t>
-  </si>
-  <si>
-    <t>Initialize Header for Saving Brain Maps</t>
-  </si>
-  <si>
-    <t>24/10/2014, 18:10 (V0.2/V6)</t>
-  </si>
-  <si>
-    <t>18/08/2015, 07:40 (V0.3/V11)</t>
-  </si>
-  <si>
-    <t>MA_inspect_GoF</t>
-  </si>
-  <si>
-    <t>Inspect Goodness of Fit in a General Linear Model</t>
-  </si>
-  <si>
-    <t>12/02/2015, 05:35 (V0.3/V10)</t>
-  </si>
-  <si>
-    <t>09/03/2018, 11:40 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>MA_LFE_uniform</t>
-  </si>
-  <si>
-    <t>Log Family Evidence assuming Uniform Priors over and within Families</t>
-  </si>
-  <si>
-    <t>05/02/2015, 12:20 (V0.3/V9)</t>
-  </si>
-  <si>
-    <t>07/12/2017, 20:50 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>MA_load_betas</t>
-  </si>
-  <si>
-    <t>Load Betas from General Linear Model</t>
-  </si>
-  <si>
-    <t>24/10/2014, 18:30 (V0.2/V6)</t>
-  </si>
-  <si>
-    <t>08/08/2017, 15:10 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>MA_load_data</t>
-  </si>
-  <si>
-    <t>Load Data from General Linear Model</t>
-  </si>
-  <si>
-    <t>MA_load_mask</t>
-  </si>
-  <si>
-    <t>Load Mask from General Linear Model</t>
-  </si>
-  <si>
-    <t>24/10/2014, 18:20 (V0.2/V6)</t>
-  </si>
-  <si>
-    <t>01/12/2017, 01:40 (V1.1/V17)</t>
-  </si>
-  <si>
-    <t>MA_model_space</t>
-  </si>
-  <si>
-    <t>Specify Model Space of General Linear Models</t>
-  </si>
-  <si>
-    <t>17/03/2017, 02:05 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>17/03/2017, 02:20 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>MC_LBF_group</t>
-  </si>
-  <si>
-    <t>model comparison</t>
-  </si>
-  <si>
-    <t>Log Bayes Factors for General Linear Models</t>
-  </si>
-  <si>
-    <t>18/03/2017, 17:05 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>04/05/2018, 15:25 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>MD_dirrnd</t>
-  </si>
-  <si>
-    <t>many distributions</t>
-  </si>
-  <si>
-    <t>Dirichlet-distributed random numbers</t>
-  </si>
-  <si>
-    <t>21/10/2014, 18:30 (V0.2/V6)</t>
-  </si>
-  <si>
-    <t>04/05/2018, 14:40 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>MD_Dir_exc_prob</t>
-  </si>
-  <si>
-    <t>Exceedance Probabilities for Dirichlet-distributed random variables</t>
-  </si>
-  <si>
-    <t>21/10/2014, 18:20 (V0.2/V6)</t>
-  </si>
-  <si>
-    <t>09/03/2018, 12:05 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>MD_Dir_mean</t>
-  </si>
-  <si>
-    <t>Expected Frequencies for Dirichlet-distributed random variables</t>
-  </si>
-  <si>
-    <t>21/10/2014, 18:10 (V0.2/V6)</t>
-  </si>
-  <si>
-    <t>15/09/2016, 09:15 (V0.9a/V13a)</t>
-  </si>
-  <si>
-    <t>MD_Dir_mode</t>
-  </si>
-  <si>
-    <t>Likeliest Frequencies for Dirichlet-distributed random variables</t>
-  </si>
-  <si>
-    <t>04/12/2014, 14:30 (V0.2/V8)</t>
-  </si>
-  <si>
-    <t>MD_gamrnd</t>
-  </si>
-  <si>
-    <t>Gamma-distributed random numbers</t>
-  </si>
-  <si>
-    <t>27/11/2014, 18:20 (V0.2/V8)</t>
-  </si>
-  <si>
-    <t>04/12/2014, 17:20 (V0.2/V8)</t>
-  </si>
-  <si>
-    <t>MD_multrnd</t>
-  </si>
-  <si>
-    <t>Multinomially distributed random numbers</t>
-  </si>
-  <si>
-    <t>20/11/2014, 17:40 (V0.2/V8)</t>
-  </si>
-  <si>
-    <t>09/03/2018, 11:25 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>ME_BMS_FFX</t>
-  </si>
-  <si>
-    <t>model estimation</t>
-  </si>
-  <si>
-    <t>Fixed Effects Bayesian Model Selection using Bayes' Rule</t>
-  </si>
-  <si>
-    <t>20/11/2014, 16:50 (V0.2/V8)</t>
-  </si>
-  <si>
-    <t>17/08/2015, 22:00 (V0.3/V11)</t>
-  </si>
-  <si>
-    <t>ME_BMS_RFX_GS</t>
-  </si>
-  <si>
-    <t>Random Effects Bayesian Model Selection using Gibbs Sampling</t>
-  </si>
-  <si>
-    <t>20/11/2014, 19:10 (V0.2/V8)</t>
-  </si>
-  <si>
-    <t>ME_BMS_RFX_VB</t>
-  </si>
-  <si>
-    <t>Random Effects Bayesian Model Selection using Variational Bayes</t>
-  </si>
-  <si>
-    <t>20/11/2014, 17:10 (V0.2/V8)</t>
-  </si>
-  <si>
-    <t>09/03/2018, 12:10 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>ME_GLM</t>
-  </si>
-  <si>
-    <t>Estimation of Classical General Linear Model</t>
-  </si>
-  <si>
-    <t>29/10/2014, 14:05 (V0.2/V7)</t>
-  </si>
-  <si>
-    <t>09/03/2018, 12:30 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>ME_GLM_DIC</t>
-  </si>
-  <si>
-    <t>Deviance Information Criterion for the General Linear Model</t>
-  </si>
-  <si>
-    <t>11/05/2017, 23:20 (V1.0/V16)</t>
-  </si>
-  <si>
-    <t>09/03/2018, 12:50 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>ME_GLM_GoF</t>
-  </si>
-  <si>
-    <t>Goodness of Fit for Classical General Linear Model</t>
-  </si>
-  <si>
-    <t>04/03/2015, 15:15 (V0.3/V10)</t>
-  </si>
-  <si>
-    <t>09/03/2018, 12:40 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>ME_GLM_LL</t>
-  </si>
-  <si>
-    <t>Log-Likelihood Function for the General Linear Model</t>
-  </si>
-  <si>
-    <t>18/03/2017, 08:40 (V0.99/V15)</t>
-  </si>
-  <si>
-    <t>09/03/2018, 12:35 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>ME_GLM_NG</t>
-  </si>
-  <si>
-    <t>Estimation of General Linear Model with Normal-Gamma Priors</t>
-  </si>
-  <si>
-    <t>24/10/2014, 16:30 (V0.2/V6)</t>
-  </si>
-  <si>
-    <t>09/03/2018, 12:15 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>ME_GLM_NG_AnC</t>
-  </si>
-  <si>
-    <t>Accuracy and Complexity for General Linear Model with Normal-Gamma Priors</t>
-  </si>
-  <si>
-    <t>07/01/2015, 14:10 (V0.3/V9)</t>
-  </si>
-  <si>
-    <t>ME_GLM_NG_LME</t>
-  </si>
-  <si>
-    <t>Log Model Evidence for General Linear Model with Normal-Gamma Priors</t>
-  </si>
-  <si>
-    <t>07/11/2014, 13:10 (V0.2/V7)</t>
-  </si>
-  <si>
-    <t>ME_GLM_SNR</t>
-  </si>
-  <si>
-    <t>Signal-to-Noise Ratio for Classical General Linear Model</t>
-  </si>
-  <si>
-    <t>11/03/2015, 03:05 (V0.3/V10)</t>
-  </si>
-  <si>
-    <t>09/03/2018, 12:45 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>ME_MF_LFE</t>
-  </si>
-  <si>
-    <t>Log Family Evidence for Model Family</t>
-  </si>
-  <si>
-    <t>12/02/2015, 02:05 (V0.3/V10)</t>
-  </si>
-  <si>
-    <t>17/08/2015, 22:15 (V0.3/V11)</t>
-  </si>
-  <si>
-    <t>ME_MS_PPs</t>
-  </si>
-  <si>
-    <t>Posterior Probabilities within Model Space</t>
-  </si>
-  <si>
-    <t>04/05/2018, 16:10 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>04/05/2018, 17:10 (V1.2/V18)</t>
-  </si>
-  <si>
-    <t>MF_int2str0</t>
-  </si>
-  <si>
-    <t>more functions</t>
-  </si>
-  <si>
-    <t>Convert integer to string of specified length</t>
-  </si>
-  <si>
-    <t>12/03/2015, 07:55 (V0.3/V10)</t>
-  </si>
-  <si>
-    <t>26/03/2015, 09:20 (V0.3/V10)</t>
-  </si>
-  <si>
-    <t>MF_quantile</t>
-  </si>
-  <si>
-    <t>Quantiles for univariate data</t>
-  </si>
-  <si>
-    <t>31/07/2014, 11:50 (V0.1/V4)</t>
-  </si>
-  <si>
-    <t>13/11/2014, 12:00 (V0.2/V7)</t>
-  </si>
-  <si>
-    <t>MF_visualize</t>
-  </si>
-  <si>
-    <t>Visualize High-Dimensional Data using SPM Overlay Mode</t>
-  </si>
-  <si>
-    <t>MS_BMA_group</t>
-  </si>
-  <si>
-    <t>model selection</t>
-  </si>
-  <si>
-    <t>Bayesian Model Averaging for General Linear Models (subject group)</t>
-  </si>
-  <si>
-    <t>03/03/2016, 18:35 (V0.4/V13)</t>
   </si>
   <si>
     <t>MS_BMA_subject</t>
@@ -1053,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1546,7 +1570,7 @@
         <v>80</v>
       </c>
       <c r="F24">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1563,127 +1587,127 @@
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F25">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <v>114</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
       </c>
       <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
         <v>88</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>89</v>
       </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
       <c r="F27">
-        <v>35</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
       </c>
       <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
         <v>92</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>93</v>
       </c>
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
       <c r="F28">
-        <v>788</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
       </c>
       <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
         <v>96</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>97</v>
       </c>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
       <c r="F29">
-        <v>123</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
       </c>
       <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>101</v>
       </c>
-      <c r="E30" t="s">
-        <v>102</v>
-      </c>
       <c r="F30">
-        <v>51</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
       </c>
       <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F31">
         <v>51</v>
@@ -1691,139 +1715,139 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F32">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>111</v>
       </c>
-      <c r="E33" t="s">
-        <v>112</v>
-      </c>
       <c r="F33">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
         <v>113</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>114</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>115</v>
       </c>
-      <c r="D34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" t="s">
-        <v>117</v>
-      </c>
       <c r="F34">
-        <v>192</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
         <v>118</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>120</v>
       </c>
-      <c r="D35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" t="s">
-        <v>122</v>
-      </c>
       <c r="F35">
-        <v>40</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
         <v>123</v>
       </c>
-      <c r="B36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>124</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>125</v>
       </c>
-      <c r="E36" t="s">
-        <v>126</v>
-      </c>
       <c r="F36">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>128</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>129</v>
       </c>
-      <c r="E37" t="s">
-        <v>130</v>
-      </c>
       <c r="F37">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
         <v>131</v>
       </c>
-      <c r="B38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>133</v>
-      </c>
-      <c r="E38" t="s">
-        <v>130</v>
       </c>
       <c r="F38">
         <v>28</v>
@@ -1834,7 +1858,7 @@
         <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
         <v>135</v>
@@ -1843,70 +1867,70 @@
         <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F39">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
         <v>138</v>
       </c>
-      <c r="B40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>139</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>140</v>
       </c>
-      <c r="E40" t="s">
-        <v>141</v>
-      </c>
       <c r="F40">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
         <v>142</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>143</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>144</v>
       </c>
-      <c r="D41" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" t="s">
-        <v>146</v>
-      </c>
       <c r="F41">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
         <v>147</v>
       </c>
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>148</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>149</v>
       </c>
-      <c r="E42" t="s">
-        <v>146</v>
-      </c>
       <c r="F42">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1914,7 +1938,7 @@
         <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
         <v>151</v>
@@ -1923,130 +1947,130 @@
         <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F43">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" t="s">
         <v>154</v>
       </c>
-      <c r="B44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>155</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>156</v>
       </c>
-      <c r="E44" t="s">
-        <v>157</v>
-      </c>
       <c r="F44">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
         <v>158</v>
       </c>
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>159</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>160</v>
       </c>
-      <c r="E45" t="s">
-        <v>161</v>
-      </c>
       <c r="F45">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
         <v>162</v>
       </c>
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>163</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>164</v>
       </c>
-      <c r="E46" t="s">
-        <v>165</v>
-      </c>
       <c r="F46">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
         <v>166</v>
       </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>167</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>168</v>
       </c>
-      <c r="E47" t="s">
-        <v>169</v>
-      </c>
       <c r="F47">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
         <v>170</v>
       </c>
-      <c r="B48" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>171</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>172</v>
       </c>
-      <c r="E48" t="s">
-        <v>173</v>
-      </c>
       <c r="F48">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
         <v>174</v>
       </c>
-      <c r="B49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>175</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>176</v>
       </c>
-      <c r="E49" t="s">
-        <v>173</v>
-      </c>
       <c r="F49">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2054,7 +2078,7 @@
         <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
         <v>178</v>
@@ -2063,30 +2087,30 @@
         <v>179</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F50">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" t="s">
         <v>180</v>
       </c>
-      <c r="B51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" t="s">
-        <v>183</v>
-      </c>
       <c r="F51">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2094,7 +2118,7 @@
         <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
         <v>185</v>
@@ -2103,98 +2127,98 @@
         <v>186</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F52">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
         <v>188</v>
       </c>
-      <c r="B53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>189</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>190</v>
       </c>
-      <c r="E53" t="s">
-        <v>191</v>
-      </c>
       <c r="F53">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
         <v>192</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>193</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>194</v>
       </c>
-      <c r="D54" t="s">
-        <v>195</v>
-      </c>
-      <c r="E54" t="s">
-        <v>196</v>
-      </c>
       <c r="F54">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" t="s">
         <v>197</v>
       </c>
-      <c r="B55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>198</v>
       </c>
-      <c r="D55" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55" t="s">
-        <v>200</v>
-      </c>
       <c r="F55">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" t="s">
         <v>201</v>
       </c>
-      <c r="B56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>202</v>
       </c>
-      <c r="D56" t="s">
-        <v>93</v>
-      </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="F56">
-        <v>690</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
         <v>205</v>
@@ -2203,30 +2227,30 @@
         <v>206</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="F57">
-        <v>107</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B58" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F58">
-        <v>333</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2234,39 +2258,39 @@
         <v>210</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F59">
-        <v>200</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" t="s">
+        <v>217</v>
+      </c>
+      <c r="E60" t="s">
         <v>214</v>
       </c>
-      <c r="B60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" t="s">
-        <v>216</v>
-      </c>
-      <c r="E60" t="s">
-        <v>217</v>
-      </c>
       <c r="F60">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2274,7 +2298,7 @@
         <v>218</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
         <v>219</v>
@@ -2286,7 +2310,7 @@
         <v>221</v>
       </c>
       <c r="F61">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2294,7 +2318,7 @@
         <v>222</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
         <v>223</v>
@@ -2303,38 +2327,78 @@
         <v>224</v>
       </c>
       <c r="E62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F62">
-        <v>109</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" t="s">
+        <v>236</v>
+      </c>
+      <c r="F65">
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="C64" t="s">
-        <v>229</v>
-      </c>
-      <c r="F64">
-        <v>8151</v>
+    <row r="66" spans="1:6">
+      <c r="C66" t="s">
+        <v>237</v>
+      </c>
+      <c r="F66">
+        <v>8658</v>
       </c>
     </row>
   </sheetData>

--- a/function_index.xlsx
+++ b/function_index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="302">
   <si>
     <t>Function Name</t>
   </si>
@@ -580,6 +580,18 @@
     <t>11:25</t>
   </si>
   <si>
+    <t>MD_mvn_logdet</t>
+  </si>
+  <si>
+    <t>Log-Determinant for Multivariate Normal Covariance Matrix</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>17/08/2015</t>
+  </si>
+  <si>
     <t>ME_BMS_FFX</t>
   </si>
   <si>
@@ -589,9 +601,6 @@
     <t>Fixed Effects Bayesian Model Selection using Bayes' Rule</t>
   </si>
   <si>
-    <t>17/08/2015</t>
-  </si>
-  <si>
     <t>22:00</t>
   </si>
   <si>
@@ -682,6 +691,12 @@
     <t>15:15</t>
   </si>
   <si>
+    <t>26/04/2019</t>
+  </si>
+  <si>
+    <t>17:55</t>
+  </si>
+  <si>
     <t>ME_GLM_LL</t>
   </si>
   <si>
@@ -691,7 +706,7 @@
     <t>08:40</t>
   </si>
   <si>
-    <t>12:35</t>
+    <t>17:50</t>
   </si>
   <si>
     <t>ME_GLM_NG</t>
@@ -716,6 +731,9 @@
   </si>
   <si>
     <t>14:10</t>
+  </si>
+  <si>
+    <t>18:00</t>
   </si>
   <si>
     <t>ME_GLM_NG_LME</t>
@@ -1251,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2097,10 +2115,10 @@
         <v>92</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="L22">
         <v>127</v>
@@ -2833,28 +2851,28 @@
         <v>188</v>
       </c>
       <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
         <v>189</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
         <v>190</v>
       </c>
-      <c r="D42" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" t="s">
-        <v>70</v>
-      </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G42" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="H42" t="s">
         <v>191</v>
       </c>
       <c r="I42" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="J42" t="s">
         <v>117</v>
@@ -2863,15 +2881,15 @@
         <v>118</v>
       </c>
       <c r="L42">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
         <v>193</v>
-      </c>
-      <c r="B43" t="s">
-        <v>189</v>
       </c>
       <c r="C43" t="s">
         <v>194</v>
@@ -2880,7 +2898,7 @@
         <v>186</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
         <v>124</v>
@@ -2892,7 +2910,7 @@
         <v>191</v>
       </c>
       <c r="I43" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J43" t="s">
         <v>117</v>
@@ -2901,7 +2919,7 @@
         <v>118</v>
       </c>
       <c r="L43">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2909,7 +2927,7 @@
         <v>196</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
         <v>197</v>
@@ -2927,86 +2945,86 @@
         <v>179</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="I44" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="L44">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
         <v>200</v>
       </c>
-      <c r="B45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" t="s">
         <v>201</v>
-      </c>
-      <c r="D45" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" t="s">
-        <v>97</v>
       </c>
       <c r="F45" t="s">
         <v>124</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="H45" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="L45">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" t="s">
         <v>206</v>
       </c>
-      <c r="B46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="H46" t="s">
         <v>207</v>
       </c>
-      <c r="D46" t="s">
+      <c r="I46" t="s">
         <v>208</v>
-      </c>
-      <c r="E46" t="s">
-        <v>209</v>
-      </c>
-      <c r="F46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" t="s">
-        <v>210</v>
-      </c>
-      <c r="I46" t="s">
-        <v>209</v>
       </c>
       <c r="J46" t="s">
         <v>106</v>
@@ -3015,74 +3033,74 @@
         <v>107</v>
       </c>
       <c r="L46">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" t="s">
         <v>211</v>
       </c>
-      <c r="B47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>212</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" t="s">
         <v>213</v>
       </c>
-      <c r="E47" t="s">
-        <v>214</v>
-      </c>
-      <c r="F47" t="s">
-        <v>215</v>
-      </c>
-      <c r="G47" t="s">
-        <v>216</v>
-      </c>
-      <c r="H47" t="s">
-        <v>24</v>
-      </c>
       <c r="I47" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="L47">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" t="s">
         <v>218</v>
       </c>
-      <c r="B48" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="G48" t="s">
         <v>219</v>
-      </c>
-      <c r="D48" t="s">
-        <v>220</v>
-      </c>
-      <c r="E48" t="s">
-        <v>221</v>
-      </c>
-      <c r="F48" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" t="s">
-        <v>131</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="J48" t="s">
         <v>18</v>
@@ -3091,112 +3109,112 @@
         <v>19</v>
       </c>
       <c r="L48">
-        <v>135</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s">
         <v>222</v>
       </c>
-      <c r="B49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>223</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
       </c>
       <c r="E49" t="s">
         <v>224</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="I49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="L49">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="I50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="L50">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
         <v>233</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G51" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H51" t="s">
         <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="J51" t="s">
         <v>18</v>
@@ -3205,100 +3223,100 @@
         <v>19</v>
       </c>
       <c r="L51">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F52" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="I52" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="L52">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E53" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F53" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="I53" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="L53">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="F54" t="s">
         <v>117</v>
@@ -3307,103 +3325,103 @@
         <v>131</v>
       </c>
       <c r="H54" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J54" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="K54" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="L54">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I55" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="K55" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="L55">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="C56" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D56" t="s">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="J56" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="K56" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" t="s">
         <v>256</v>
-      </c>
-      <c r="B57" t="s">
-        <v>250</v>
       </c>
       <c r="C57" t="s">
         <v>257</v>
@@ -3415,92 +3433,92 @@
         <v>259</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G57" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" t="s">
         <v>260</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>261</v>
       </c>
-      <c r="I57" t="s">
-        <v>262</v>
-      </c>
       <c r="J57" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K57" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="L57">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" t="s">
         <v>263</v>
       </c>
-      <c r="B58" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>264</v>
       </c>
-      <c r="D58" t="s">
-        <v>129</v>
-      </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="I58" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="K58" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="L58">
-        <v>690</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C59" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D59" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="F59" t="s">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="G59" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="H59" t="s">
         <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="J59" t="s">
         <v>18</v>
@@ -3509,36 +3527,36 @@
         <v>19</v>
       </c>
       <c r="L59">
-        <v>107</v>
+        <v>690</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" t="s">
         <v>272</v>
-      </c>
-      <c r="B60" t="s">
-        <v>266</v>
       </c>
       <c r="C60" t="s">
         <v>273</v>
       </c>
       <c r="D60" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F60" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G60" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H60" t="s">
         <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J60" t="s">
         <v>18</v>
@@ -3547,62 +3565,62 @@
         <v>19</v>
       </c>
       <c r="L60">
-        <v>333</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
+        <v>279</v>
+      </c>
+      <c r="D61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E61" t="s">
+        <v>280</v>
+      </c>
+      <c r="F61" t="s">
         <v>276</v>
       </c>
-      <c r="D61" t="s">
+      <c r="G61" t="s">
         <v>277</v>
       </c>
-      <c r="E61" t="s">
-        <v>278</v>
-      </c>
-      <c r="F61" t="s">
-        <v>124</v>
-      </c>
-      <c r="G61" t="s">
-        <v>179</v>
-      </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="J61" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L61">
-        <v>200</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E62" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="F62" t="s">
         <v>124</v>
@@ -3611,36 +3629,36 @@
         <v>179</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L62">
-        <v>347</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E63" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="F63" t="s">
         <v>124</v>
@@ -3649,103 +3667,141 @@
         <v>179</v>
       </c>
       <c r="H63" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I63" t="s">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="J63" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="L63">
-        <v>40</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C64" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="E64" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I64" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="K64" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="L64">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>296</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s">
+        <v>296</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" t="s">
+        <v>299</v>
+      </c>
+      <c r="F66" t="s">
+        <v>117</v>
+      </c>
+      <c r="G66" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" t="s">
+        <v>300</v>
+      </c>
+      <c r="I66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" t="s">
+        <v>82</v>
+      </c>
+      <c r="K66" t="s">
+        <v>83</v>
+      </c>
+      <c r="L66">
         <v>292</v>
       </c>
-      <c r="D65" t="s">
-        <v>252</v>
-      </c>
-      <c r="E65" t="s">
-        <v>293</v>
-      </c>
-      <c r="F65" t="s">
-        <v>117</v>
-      </c>
-      <c r="G65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H65" t="s">
-        <v>294</v>
-      </c>
-      <c r="I65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" t="s">
-        <v>82</v>
-      </c>
-      <c r="K65" t="s">
-        <v>83</v>
-      </c>
-      <c r="L65">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="C66" t="s">
-        <v>295</v>
-      </c>
-      <c r="L66">
-        <v>8696</v>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="C67" t="s">
+        <v>301</v>
+      </c>
+      <c r="L67">
+        <v>8763</v>
       </c>
     </row>
   </sheetData>
